--- a/PP/MPI/Task1/Testing.xlsx
+++ b/PP/MPI/Task1/Testing.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
-    <t>v1</t>
+    <t>Вариант 1</t>
   </si>
   <si>
-    <t>v2</t>
+    <t>Вариант 2</t>
   </si>
 </sst>
 </file>
@@ -342,23 +342,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -368,8 +386,39 @@
       <c r="C2">
         <v>43.35</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>54.4</v>
+      </c>
+      <c r="H2">
+        <v>43.35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>G$2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>H$2/H2</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>K2/O2*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>L2/O2*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -379,8 +428,39 @@
       <c r="C3">
         <v>22.02</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>27.4</v>
+      </c>
+      <c r="H3">
+        <v>22.02</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:L6" si="0">G$2/G3</f>
+        <v>1.9854014598540146</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.9686648501362398</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="1">K3/O3*100</f>
+        <v>99.270072992700733</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="2">L3/O3*100</f>
+        <v>98.433242506811993</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -390,8 +470,39 @@
       <c r="C4">
         <v>11.48</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>21.36</v>
+      </c>
+      <c r="H4">
+        <v>11.48</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2.5468164794007491</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>3.7761324041811846</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>63.670411985018724</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>94.403310104529609</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -401,8 +512,39 @@
       <c r="C5">
         <v>6.58</v>
       </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>6.58</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>6.5881458966565347</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>82.35182370820668</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -411,6 +553,37 @@
       </c>
       <c r="C6">
         <v>6.4</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>16.3</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.3374233128834354</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>6.7734375</v>
+      </c>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>20.858895705521473</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>42.333984375</v>
       </c>
     </row>
   </sheetData>
